--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Happiest Minds Technologies Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Happiest Minds Technologies Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
@@ -597,7 +597,7 @@
         <v>5.49</v>
       </c>
       <c r="V2">
-        <v>70.49666666666667</v>
+        <v>70.5</v>
       </c>
       <c r="W2">
         <v>224</v>
@@ -668,7 +668,7 @@
         <v>11.41</v>
       </c>
       <c r="V3">
-        <v>70.49666666666667</v>
+        <v>70.5</v>
       </c>
       <c r="W3">
         <v>150</v>
